--- a/doc/Book1.xlsx
+++ b/doc/Book1.xlsx
@@ -409,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -442,92 +442,89 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,28 +820,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -856,41 +855,38 @@
       <c r="F1" s="3">
         <v>1</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="21">
+      <c r="H1" s="13">
         <v>2011800001</v>
       </c>
-      <c r="I1" s="16">
-        <v>1</v>
-      </c>
-      <c r="J1" s="19" t="s">
+      <c r="I1" s="15">
+        <v>1</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="21">
+      <c r="K1" s="13">
         <v>2031700001</v>
       </c>
-      <c r="L1" s="16">
-        <v>1</v>
-      </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="19" t="s">
+      <c r="L1" s="15">
+        <v>1</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="25">
+      <c r="N1" s="19">
         <v>3011700001</v>
       </c>
-      <c r="R1" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="O1" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="39"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
@@ -900,23 +896,20 @@
       <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="28"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="15"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="22"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="39"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
@@ -929,22 +922,19 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="29"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="39"/>
+      <c r="B4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -956,41 +946,38 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="13">
         <v>2011800002</v>
       </c>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="15">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="13">
         <v>2031700002</v>
       </c>
-      <c r="L4" s="16">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="30" t="s">
+      <c r="L4" s="15">
+        <v>1</v>
+      </c>
+      <c r="M4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="N4" s="20">
         <v>3011700002</v>
       </c>
-      <c r="R4" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="15"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="O4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="39"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1000,23 +987,20 @@
       <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="28"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="22"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="39"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1026,25 +1010,22 @@
       <c r="F6" s="3">
         <v>0.43</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="29"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="30"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="39"/>
+      <c r="B7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1056,41 +1037,38 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="13">
         <v>2011800003</v>
       </c>
-      <c r="I7" s="16">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="15">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="13">
         <v>2031700003</v>
       </c>
-      <c r="L7" s="16">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="19" t="s">
+      <c r="L7" s="15">
+        <v>1</v>
+      </c>
+      <c r="M7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="N7" s="20">
         <v>3011700003</v>
       </c>
-      <c r="R7" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="15"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="O7" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="39"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1100,23 +1078,20 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="28"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="22"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="39"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1126,25 +1101,22 @@
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="29"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="30"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1156,41 +1128,38 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="13">
         <v>2011800004</v>
       </c>
-      <c r="I10" s="16">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19" t="s">
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="13">
         <v>2031700004</v>
       </c>
-      <c r="L10" s="16">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="19" t="s">
+      <c r="L10" s="15">
+        <v>1</v>
+      </c>
+      <c r="M10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="N10" s="20">
         <v>3011700004</v>
       </c>
-      <c r="R10" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="O10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1200,23 +1169,20 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="28"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="15"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="39"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1226,25 +1192,22 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="29"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="30"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="39"/>
+      <c r="B13" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1256,41 +1219,38 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="13">
         <v>2011800005</v>
       </c>
-      <c r="I13" s="16">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="13">
         <v>2031700005</v>
       </c>
-      <c r="L13" s="16">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="19" t="s">
+      <c r="L13" s="15">
+        <v>1</v>
+      </c>
+      <c r="M13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="Q13" s="25">
+      <c r="N13" s="19">
         <v>3011700005</v>
       </c>
-      <c r="R13" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="O13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="39"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="6" t="s">
         <v>33</v>
       </c>
@@ -1300,25 +1260,22 @@
       <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="29"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="39"/>
+      <c r="B15" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1330,41 +1287,38 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="13">
         <v>2011800006</v>
       </c>
-      <c r="I15" s="16">
-        <v>1</v>
-      </c>
-      <c r="J15" s="34" t="s">
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="31">
         <v>2031700006</v>
       </c>
-      <c r="L15" s="16">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="19" t="s">
+      <c r="L15" s="15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="25">
+      <c r="N15" s="19">
         <v>3011700006</v>
       </c>
-      <c r="R15" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="15"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="O15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="39"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="6" t="s">
         <v>33</v>
       </c>
@@ -1374,25 +1328,22 @@
       <c r="F16" s="7">
         <v>2</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="29"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="16" t="s">
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="39"/>
+      <c r="B17" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -1404,41 +1355,38 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="13">
         <v>2011800007</v>
       </c>
-      <c r="I17" s="16">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19" t="s">
+      <c r="I17" s="15">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="13">
         <v>2031700007</v>
       </c>
-      <c r="L17" s="38">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="19" t="s">
+      <c r="L17" s="26">
+        <v>1</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="N17" s="19">
         <v>3011700007</v>
       </c>
-      <c r="R17" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="15"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="O17" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="39"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="5" t="s">
         <v>7</v>
       </c>
@@ -1448,23 +1396,20 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="28"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="22"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="39"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1474,23 +1419,20 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="28"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="15"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="22"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="39"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="6" t="s">
         <v>9</v>
       </c>
@@ -1502,23 +1444,20 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="29"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="I20" s="12"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="39"/>
+      <c r="B21" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="11" t="s">
@@ -1530,157 +1469,76 @@
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="19" t="s">
+      <c r="G21" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="13">
         <v>2011800008</v>
       </c>
-      <c r="I21" s="16">
-        <v>1</v>
-      </c>
-      <c r="J21" s="19" t="s">
+      <c r="I21" s="15">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="13">
         <v>2031700008</v>
       </c>
-      <c r="L21" s="16">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="19" t="s">
+      <c r="L21" s="15">
+        <v>1</v>
+      </c>
+      <c r="M21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q21" s="25">
+      <c r="N21" s="19">
         <v>3011700008</v>
       </c>
-      <c r="R21" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="17"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="28"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="15"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="17"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="28"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="17"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="28"/>
+      <c r="O21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="39"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="39"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="39"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="K17:K20"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="Q7:Q9"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="K4:K6"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="Q4:Q6"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="O1:O3"/>
     <mergeCell ref="A1:A24"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -1691,6 +1549,84 @@
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="H4:H6"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="M1:M3"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="K4:K6"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
